--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H2">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.856959</v>
+        <v>19.58374133333333</v>
       </c>
       <c r="N2">
-        <v>77.570877</v>
+        <v>58.751224</v>
       </c>
       <c r="O2">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
       <c r="P2">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
       <c r="Q2">
-        <v>17.201057548201</v>
+        <v>13.41108967916978</v>
       </c>
       <c r="R2">
-        <v>154.809517933809</v>
+        <v>120.699807112528</v>
       </c>
       <c r="S2">
-        <v>0.2739492464218792</v>
+        <v>0.1492285535082697</v>
       </c>
       <c r="T2">
-        <v>0.2739492464218792</v>
+        <v>0.1492285535082697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H3">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.657374333333332</v>
+        <v>6.657374333333333</v>
       </c>
       <c r="N3">
         <v>19.972123</v>
       </c>
       <c r="O3">
-        <v>0.189522064110691</v>
+        <v>0.2236437337398222</v>
       </c>
       <c r="P3">
-        <v>0.1895220641106909</v>
+        <v>0.2236437337398222</v>
       </c>
       <c r="Q3">
-        <v>4.428745044132333</v>
+        <v>4.559018764211777</v>
       </c>
       <c r="R3">
-        <v>39.858705397191</v>
+        <v>41.031168877906</v>
       </c>
       <c r="S3">
-        <v>0.07053353341995967</v>
+        <v>0.0507293435414936</v>
       </c>
       <c r="T3">
-        <v>0.07053353341995966</v>
+        <v>0.05072934354149362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H4">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.612839666666666</v>
+        <v>3.526650333333333</v>
       </c>
       <c r="N4">
-        <v>7.838519</v>
+        <v>10.579951</v>
       </c>
       <c r="O4">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
       <c r="P4">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
       <c r="Q4">
-        <v>1.738162847013667</v>
+        <v>2.41507601036911</v>
       </c>
       <c r="R4">
-        <v>15.643465623123</v>
+        <v>21.735684093322</v>
       </c>
       <c r="S4">
-        <v>0.0276825073553517</v>
+        <v>0.02687315559448381</v>
       </c>
       <c r="T4">
-        <v>0.0276825073553517</v>
+        <v>0.02687315559448382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.983764</v>
       </c>
       <c r="I5">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J5">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.856959</v>
+        <v>19.58374133333333</v>
       </c>
       <c r="N5">
-        <v>77.570877</v>
+        <v>58.751224</v>
       </c>
       <c r="O5">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
       <c r="P5">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
       <c r="Q5">
-        <v>8.479048471225333</v>
+        <v>6.421926569681777</v>
       </c>
       <c r="R5">
-        <v>76.31143624102799</v>
+        <v>57.797339127136</v>
       </c>
       <c r="S5">
-        <v>0.1350398911553961</v>
+        <v>0.07145838523609535</v>
       </c>
       <c r="T5">
-        <v>0.1350398911553961</v>
+        <v>0.07145838523609535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.983764</v>
       </c>
       <c r="I6">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J6">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.657374333333332</v>
+        <v>6.657374333333333</v>
       </c>
       <c r="N6">
         <v>19.972123</v>
       </c>
       <c r="O6">
-        <v>0.189522064110691</v>
+        <v>0.2236437337398222</v>
       </c>
       <c r="P6">
-        <v>0.1895220641106909</v>
+        <v>0.2236437337398222</v>
       </c>
       <c r="Q6">
         <v>2.183095067885778</v>
       </c>
       <c r="R6">
-        <v>19.64785561097199</v>
+        <v>19.647855610972</v>
       </c>
       <c r="S6">
-        <v>0.03476863251220148</v>
+        <v>0.0242918455505996</v>
       </c>
       <c r="T6">
-        <v>0.03476863251220148</v>
+        <v>0.0242918455505996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.983764</v>
       </c>
       <c r="I7">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J7">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.612839666666666</v>
+        <v>3.526650333333333</v>
       </c>
       <c r="N7">
-        <v>7.838519</v>
+        <v>10.579951</v>
       </c>
       <c r="O7">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
       <c r="P7">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
       <c r="Q7">
-        <v>0.8568058672795555</v>
+        <v>1.156463879507111</v>
       </c>
       <c r="R7">
-        <v>7.711252805516</v>
+        <v>10.408174915564</v>
       </c>
       <c r="S7">
-        <v>0.0136457494554239</v>
+        <v>0.01286826320992073</v>
       </c>
       <c r="T7">
-        <v>0.0136457494554239</v>
+        <v>0.01286826320992073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H8">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.856959</v>
+        <v>19.58374133333333</v>
       </c>
       <c r="N8">
-        <v>77.570877</v>
+        <v>58.751224</v>
       </c>
       <c r="O8">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
       <c r="P8">
-        <v>0.7360956431079723</v>
+        <v>0.6578841466750758</v>
       </c>
       <c r="Q8">
-        <v>20.53876000578433</v>
+        <v>39.29067745548089</v>
       </c>
       <c r="R8">
-        <v>184.848840052059</v>
+        <v>353.616097099328</v>
       </c>
       <c r="S8">
-        <v>0.327106505530697</v>
+        <v>0.4371972079307107</v>
       </c>
       <c r="T8">
-        <v>0.327106505530697</v>
+        <v>0.4371972079307107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H9">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.657374333333332</v>
+        <v>6.657374333333333</v>
       </c>
       <c r="N9">
         <v>19.972123</v>
       </c>
       <c r="O9">
-        <v>0.189522064110691</v>
+        <v>0.2236437337398222</v>
       </c>
       <c r="P9">
-        <v>0.1895220641106909</v>
+        <v>0.2236437337398222</v>
       </c>
       <c r="Q9">
-        <v>5.288101114326777</v>
+        <v>13.35662798947289</v>
       </c>
       <c r="R9">
-        <v>47.59291002894098</v>
+        <v>120.209651905256</v>
       </c>
       <c r="S9">
-        <v>0.08421989817852983</v>
+        <v>0.148622544647729</v>
       </c>
       <c r="T9">
-        <v>0.08421989817852982</v>
+        <v>0.148622544647729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H10">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.612839666666666</v>
+        <v>3.526650333333333</v>
       </c>
       <c r="N10">
-        <v>7.838519</v>
+        <v>10.579951</v>
       </c>
       <c r="O10">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
       <c r="P10">
-        <v>0.07438229278133673</v>
+        <v>0.118472119585102</v>
       </c>
       <c r="Q10">
-        <v>2.075436900652555</v>
+        <v>7.075485648363555</v>
       </c>
       <c r="R10">
-        <v>18.678932105873</v>
+        <v>63.679370835272</v>
       </c>
       <c r="S10">
-        <v>0.03305403597056114</v>
+        <v>0.07873070078069744</v>
       </c>
       <c r="T10">
-        <v>0.03305403597056114</v>
+        <v>0.07873070078069745</v>
       </c>
     </row>
   </sheetData>
